--- a/source-xlsx/18-04-2020.xlsx
+++ b/source-xlsx/18-04-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\covid19\source-xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0590EE8D-1BF4-4417-9B69-7813834D5FCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ED5E20-12E4-4287-9838-17D78F4400D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="173">
   <si>
     <t>division</t>
   </si>
@@ -893,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D171"/>
+  <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,7 +1216,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1263,7 +1263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
@@ -1285,181 +1285,182 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" s="3"/>
     </row>
@@ -1468,10 +1469,10 @@
         <v>55</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" s="3"/>
     </row>
@@ -1480,7 +1481,7 @@
         <v>55</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -1492,24 +1493,26 @@
         <v>55</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="2">
-        <v>4</v>
-      </c>
-      <c r="D54" s="3"/>
+      <c r="A54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" s="3">
+        <v>5</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
@@ -1522,7 +1525,7 @@
         <v>5</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1533,10 +1536,10 @@
         <v>172</v>
       </c>
       <c r="C56" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1550,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1561,10 +1564,10 @@
         <v>172</v>
       </c>
       <c r="C58" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1575,10 +1578,10 @@
         <v>172</v>
       </c>
       <c r="C59" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1589,10 +1592,10 @@
         <v>172</v>
       </c>
       <c r="C60" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1603,10 +1606,10 @@
         <v>172</v>
       </c>
       <c r="C61" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1617,10 +1620,10 @@
         <v>172</v>
       </c>
       <c r="C62" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1631,10 +1634,10 @@
         <v>172</v>
       </c>
       <c r="C63" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1645,10 +1648,10 @@
         <v>172</v>
       </c>
       <c r="C64" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1659,10 +1662,10 @@
         <v>172</v>
       </c>
       <c r="C65" s="3">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1673,10 +1676,10 @@
         <v>172</v>
       </c>
       <c r="C66" s="3">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1687,10 +1690,10 @@
         <v>172</v>
       </c>
       <c r="C67" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1704,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1718,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1732,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1746,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1760,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1774,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1788,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1799,10 +1802,10 @@
         <v>172</v>
       </c>
       <c r="C75" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1813,10 +1816,10 @@
         <v>172</v>
       </c>
       <c r="C76" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1827,10 +1830,10 @@
         <v>172</v>
       </c>
       <c r="C77" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1841,10 +1844,10 @@
         <v>172</v>
       </c>
       <c r="C78" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1855,10 +1858,10 @@
         <v>172</v>
       </c>
       <c r="C79" s="3">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1869,10 +1872,10 @@
         <v>172</v>
       </c>
       <c r="C80" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1886,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1897,10 +1900,10 @@
         <v>172</v>
       </c>
       <c r="C82" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1911,10 +1914,10 @@
         <v>172</v>
       </c>
       <c r="C83" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1928,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1939,10 +1942,10 @@
         <v>172</v>
       </c>
       <c r="C85" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1953,10 +1956,10 @@
         <v>172</v>
       </c>
       <c r="C86" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1967,10 +1970,10 @@
         <v>172</v>
       </c>
       <c r="C87" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1981,10 +1984,10 @@
         <v>172</v>
       </c>
       <c r="C88" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1995,10 +1998,10 @@
         <v>172</v>
       </c>
       <c r="C89" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2009,10 +2012,10 @@
         <v>172</v>
       </c>
       <c r="C90" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2023,10 +2026,10 @@
         <v>172</v>
       </c>
       <c r="C91" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2037,10 +2040,10 @@
         <v>172</v>
       </c>
       <c r="C92" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2051,10 +2054,10 @@
         <v>172</v>
       </c>
       <c r="C93" s="3">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2065,10 +2068,10 @@
         <v>172</v>
       </c>
       <c r="C94" s="3">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2082,7 +2085,7 @@
         <v>2</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2093,10 +2096,10 @@
         <v>172</v>
       </c>
       <c r="C96" s="3">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2107,10 +2110,10 @@
         <v>172</v>
       </c>
       <c r="C97" s="3">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2121,10 +2124,10 @@
         <v>172</v>
       </c>
       <c r="C98" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2135,10 +2138,10 @@
         <v>172</v>
       </c>
       <c r="C99" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2149,10 +2152,10 @@
         <v>172</v>
       </c>
       <c r="C100" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2163,10 +2166,10 @@
         <v>172</v>
       </c>
       <c r="C101" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2177,10 +2180,10 @@
         <v>172</v>
       </c>
       <c r="C102" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2194,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2205,10 +2208,10 @@
         <v>172</v>
       </c>
       <c r="C104" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2219,10 +2222,10 @@
         <v>172</v>
       </c>
       <c r="C105" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2236,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2247,10 +2250,10 @@
         <v>172</v>
       </c>
       <c r="C107" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2261,10 +2264,10 @@
         <v>172</v>
       </c>
       <c r="C108" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2275,10 +2278,10 @@
         <v>172</v>
       </c>
       <c r="C109" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2289,10 +2292,10 @@
         <v>172</v>
       </c>
       <c r="C110" s="3">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2303,10 +2306,10 @@
         <v>172</v>
       </c>
       <c r="C111" s="3">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2317,10 +2320,10 @@
         <v>172</v>
       </c>
       <c r="C112" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2331,10 +2334,10 @@
         <v>172</v>
       </c>
       <c r="C113" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2345,10 +2348,10 @@
         <v>172</v>
       </c>
       <c r="C114" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2362,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2373,10 +2376,10 @@
         <v>172</v>
       </c>
       <c r="C116" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2387,10 +2390,10 @@
         <v>172</v>
       </c>
       <c r="C117" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2401,10 +2404,10 @@
         <v>172</v>
       </c>
       <c r="C118" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2415,10 +2418,10 @@
         <v>172</v>
       </c>
       <c r="C119" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2429,10 +2432,10 @@
         <v>172</v>
       </c>
       <c r="C120" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2443,10 +2446,10 @@
         <v>172</v>
       </c>
       <c r="C121" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2457,10 +2460,10 @@
         <v>172</v>
       </c>
       <c r="C122" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2471,10 +2474,10 @@
         <v>172</v>
       </c>
       <c r="C123" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2485,10 +2488,10 @@
         <v>172</v>
       </c>
       <c r="C124" s="3">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2499,10 +2502,10 @@
         <v>172</v>
       </c>
       <c r="C125" s="3">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2513,10 +2516,10 @@
         <v>172</v>
       </c>
       <c r="C126" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2527,10 +2530,10 @@
         <v>172</v>
       </c>
       <c r="C127" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2541,10 +2544,10 @@
         <v>172</v>
       </c>
       <c r="C128" s="3">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2555,10 +2558,10 @@
         <v>172</v>
       </c>
       <c r="C129" s="3">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2569,10 +2572,10 @@
         <v>172</v>
       </c>
       <c r="C130" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -2583,10 +2586,10 @@
         <v>172</v>
       </c>
       <c r="C131" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2597,10 +2600,10 @@
         <v>172</v>
       </c>
       <c r="C132" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -2611,10 +2614,10 @@
         <v>172</v>
       </c>
       <c r="C133" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -2625,10 +2628,10 @@
         <v>172</v>
       </c>
       <c r="C134" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2639,10 +2642,10 @@
         <v>172</v>
       </c>
       <c r="C135" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2653,10 +2656,10 @@
         <v>172</v>
       </c>
       <c r="C136" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2667,10 +2670,10 @@
         <v>172</v>
       </c>
       <c r="C137" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2684,7 +2687,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -2695,10 +2698,10 @@
         <v>172</v>
       </c>
       <c r="C139" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -2709,10 +2712,10 @@
         <v>172</v>
       </c>
       <c r="C140" s="3">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -2723,10 +2726,10 @@
         <v>172</v>
       </c>
       <c r="C141" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -2737,10 +2740,10 @@
         <v>172</v>
       </c>
       <c r="C142" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -2754,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -2768,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -2779,10 +2782,10 @@
         <v>172</v>
       </c>
       <c r="C145" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -2793,10 +2796,10 @@
         <v>172</v>
       </c>
       <c r="C146" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -2810,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -2824,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -2835,10 +2838,10 @@
         <v>172</v>
       </c>
       <c r="C149" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -2849,10 +2852,10 @@
         <v>172</v>
       </c>
       <c r="C150" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -2863,10 +2866,10 @@
         <v>172</v>
       </c>
       <c r="C151" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -2877,10 +2880,10 @@
         <v>172</v>
       </c>
       <c r="C152" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -2894,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -2905,10 +2908,10 @@
         <v>172</v>
       </c>
       <c r="C154" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -2919,10 +2922,10 @@
         <v>172</v>
       </c>
       <c r="C155" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -2933,10 +2936,10 @@
         <v>172</v>
       </c>
       <c r="C156" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -2950,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -2961,10 +2964,10 @@
         <v>172</v>
       </c>
       <c r="C158" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -2978,7 +2981,7 @@
         <v>3</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -2989,10 +2992,10 @@
         <v>172</v>
       </c>
       <c r="C160" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3003,10 +3006,10 @@
         <v>172</v>
       </c>
       <c r="C161" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3017,10 +3020,10 @@
         <v>172</v>
       </c>
       <c r="C162" s="3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3031,10 +3034,10 @@
         <v>172</v>
       </c>
       <c r="C163" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3045,10 +3048,10 @@
         <v>172</v>
       </c>
       <c r="C164" s="3">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3059,10 +3062,10 @@
         <v>172</v>
       </c>
       <c r="C165" s="3">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3073,10 +3076,10 @@
         <v>172</v>
       </c>
       <c r="C166" s="3">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3087,10 +3090,10 @@
         <v>172</v>
       </c>
       <c r="C167" s="3">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3101,33 +3104,19 @@
         <v>172</v>
       </c>
       <c r="C168" s="3">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C169" s="3">
-        <v>28</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>171</v>
-      </c>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source-xlsx/18-04-2020.xlsx
+++ b/source-xlsx/18-04-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\covid19\source-xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ED5E20-12E4-4287-9838-17D78F4400D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B323F7-73DC-4DA5-A6F6-15C0A74AE17E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="174">
   <si>
     <t>division</t>
   </si>
@@ -552,6 +552,9 @@
   </si>
   <si>
     <t>Dhaka City</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -567,18 +570,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -601,16 +602,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -895,11 +893,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170:XFD292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" style="1" customWidth="1"/>
@@ -1438,7 +1436,7 @@
       <c r="C48" s="2">
         <v>4</v>
       </c>
-      <c r="D48" s="3"/>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
@@ -1450,7 +1448,7 @@
       <c r="C49" s="2">
         <v>3</v>
       </c>
-      <c r="D49" s="3"/>
+      <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -1462,7 +1460,7 @@
       <c r="C50" s="2">
         <v>2</v>
       </c>
-      <c r="D50" s="3"/>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
@@ -1474,7 +1472,7 @@
       <c r="C51" s="2">
         <v>1</v>
       </c>
-      <c r="D51" s="3"/>
+      <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1486,7 +1484,7 @@
       <c r="C52" s="2">
         <v>1</v>
       </c>
-      <c r="D52" s="3"/>
+      <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1498,19 +1496,19 @@
       <c r="C53" s="2">
         <v>4</v>
       </c>
-      <c r="D53" s="3"/>
+      <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C54" s="3">
+      <c r="B54" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" s="2">
         <v>5</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1518,13 +1516,13 @@
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C55" s="3">
+      <c r="B55" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="2">
         <v>5</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1532,13 +1530,13 @@
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C56" s="3">
-        <v>1</v>
-      </c>
-      <c r="D56" s="3" t="s">
+      <c r="B56" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1546,13 +1544,13 @@
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C57" s="3">
-        <v>1</v>
-      </c>
-      <c r="D57" s="3" t="s">
+      <c r="B57" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1560,13 +1558,13 @@
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C58" s="3">
+      <c r="B58" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="2">
         <v>13</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1574,13 +1572,13 @@
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C59" s="3">
+      <c r="B59" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="2">
         <v>11</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1588,13 +1586,13 @@
       <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C60" s="3">
+      <c r="B60" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="2">
         <v>8</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1602,13 +1600,13 @@
       <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C61" s="3">
+      <c r="B61" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" s="2">
         <v>3</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1616,13 +1614,13 @@
       <c r="A62" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C62" s="3">
+      <c r="B62" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" s="2">
         <v>8</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1630,13 +1628,13 @@
       <c r="A63" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C63" s="3">
+      <c r="B63" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="2">
         <v>16</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1644,13 +1642,13 @@
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C64" s="3">
-        <v>1</v>
-      </c>
-      <c r="D64" s="3" t="s">
+      <c r="B64" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1658,13 +1656,13 @@
       <c r="A65" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C65" s="3">
+      <c r="B65" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65" s="2">
         <v>17</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1672,13 +1670,13 @@
       <c r="A66" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C66" s="3">
+      <c r="B66" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" s="2">
         <v>6</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1686,13 +1684,13 @@
       <c r="A67" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C67" s="3">
-        <v>1</v>
-      </c>
-      <c r="D67" s="3" t="s">
+      <c r="B67" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1700,13 +1698,13 @@
       <c r="A68" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C68" s="3">
-        <v>1</v>
-      </c>
-      <c r="D68" s="3" t="s">
+      <c r="B68" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1714,13 +1712,13 @@
       <c r="A69" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C69" s="3">
-        <v>1</v>
-      </c>
-      <c r="D69" s="3" t="s">
+      <c r="B69" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1728,13 +1726,13 @@
       <c r="A70" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C70" s="3">
-        <v>1</v>
-      </c>
-      <c r="D70" s="3" t="s">
+      <c r="B70" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1742,13 +1740,13 @@
       <c r="A71" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C71" s="3">
-        <v>1</v>
-      </c>
-      <c r="D71" s="3" t="s">
+      <c r="B71" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1756,13 +1754,13 @@
       <c r="A72" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C72" s="3">
-        <v>1</v>
-      </c>
-      <c r="D72" s="3" t="s">
+      <c r="B72" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1770,13 +1768,13 @@
       <c r="A73" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C73" s="3">
-        <v>1</v>
-      </c>
-      <c r="D73" s="3" t="s">
+      <c r="B73" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1784,13 +1782,13 @@
       <c r="A74" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C74" s="3">
-        <v>1</v>
-      </c>
-      <c r="D74" s="3" t="s">
+      <c r="B74" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1798,13 +1796,13 @@
       <c r="A75" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C75" s="3">
+      <c r="B75" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" s="2">
         <v>7</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1812,13 +1810,13 @@
       <c r="A76" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C76" s="3">
+      <c r="B76" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" s="2">
         <v>12</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1826,13 +1824,13 @@
       <c r="A77" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C77" s="3">
-        <v>1</v>
-      </c>
-      <c r="D77" s="3" t="s">
+      <c r="B77" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1840,13 +1838,13 @@
       <c r="A78" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C78" s="3">
+      <c r="B78" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78" s="2">
         <v>3</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1854,13 +1852,13 @@
       <c r="A79" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C79" s="3">
+      <c r="B79" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79" s="2">
         <v>21</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1868,13 +1866,13 @@
       <c r="A80" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C80" s="3">
-        <v>1</v>
-      </c>
-      <c r="D80" s="3" t="s">
+      <c r="B80" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1882,13 +1880,13 @@
       <c r="A81" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C81" s="3">
-        <v>1</v>
-      </c>
-      <c r="D81" s="3" t="s">
+      <c r="B81" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1896,13 +1894,13 @@
       <c r="A82" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C82" s="3">
+      <c r="B82" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82" s="2">
         <v>6</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1910,13 +1908,13 @@
       <c r="A83" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C83" s="3">
-        <v>1</v>
-      </c>
-      <c r="D83" s="3" t="s">
+      <c r="B83" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" s="2">
+        <v>1</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1924,13 +1922,13 @@
       <c r="A84" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C84" s="3">
-        <v>1</v>
-      </c>
-      <c r="D84" s="3" t="s">
+      <c r="B84" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1938,13 +1936,13 @@
       <c r="A85" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C85" s="3">
+      <c r="B85" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" s="2">
         <v>16</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1952,13 +1950,13 @@
       <c r="A86" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C86" s="3">
-        <v>1</v>
-      </c>
-      <c r="D86" s="3" t="s">
+      <c r="B86" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86" s="2">
+        <v>1</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1966,13 +1964,13 @@
       <c r="A87" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C87" s="3">
+      <c r="B87" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" s="2">
         <v>3</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="2" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1980,13 +1978,13 @@
       <c r="A88" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C88" s="3">
+      <c r="B88" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C88" s="2">
         <v>10</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="2" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1994,13 +1992,13 @@
       <c r="A89" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C89" s="3">
+      <c r="B89" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" s="2">
         <v>3</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2008,13 +2006,13 @@
       <c r="A90" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C90" s="3">
+      <c r="B90" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C90" s="2">
         <v>14</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2022,13 +2020,13 @@
       <c r="A91" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C91" s="3">
-        <v>1</v>
-      </c>
-      <c r="D91" s="3" t="s">
+      <c r="B91" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C91" s="2">
+        <v>1</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2036,13 +2034,13 @@
       <c r="A92" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C92" s="3">
+      <c r="B92" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C92" s="2">
         <v>3</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2050,13 +2048,13 @@
       <c r="A93" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C93" s="3">
+      <c r="B93" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C93" s="2">
         <v>16</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="2" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2064,13 +2062,13 @@
       <c r="A94" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C94" s="3">
+      <c r="B94" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C94" s="2">
         <v>2</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2078,13 +2076,13 @@
       <c r="A95" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C95" s="3">
+      <c r="B95" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C95" s="2">
         <v>2</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="2" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2092,13 +2090,13 @@
       <c r="A96" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C96" s="3">
+      <c r="B96" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C96" s="2">
         <v>25</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="2" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2106,13 +2104,13 @@
       <c r="A97" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C97" s="3">
+      <c r="B97" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C97" s="2">
         <v>5</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="2" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2120,13 +2118,13 @@
       <c r="A98" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C98" s="3">
+      <c r="B98" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C98" s="2">
         <v>3</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2134,13 +2132,13 @@
       <c r="A99" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C99" s="3">
+      <c r="B99" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C99" s="2">
         <v>2</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="2" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2148,13 +2146,13 @@
       <c r="A100" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C100" s="3">
+      <c r="B100" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C100" s="2">
         <v>4</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2162,13 +2160,13 @@
       <c r="A101" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C101" s="3">
+      <c r="B101" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C101" s="2">
         <v>3</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="2" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2176,13 +2174,13 @@
       <c r="A102" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C102" s="3">
-        <v>1</v>
-      </c>
-      <c r="D102" s="3" t="s">
+      <c r="B102" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C102" s="2">
+        <v>1</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2190,13 +2188,13 @@
       <c r="A103" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C103" s="3">
-        <v>1</v>
-      </c>
-      <c r="D103" s="3" t="s">
+      <c r="B103" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C103" s="2">
+        <v>1</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2204,13 +2202,13 @@
       <c r="A104" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C104" s="3">
+      <c r="B104" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C104" s="2">
         <v>2</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2218,13 +2216,13 @@
       <c r="A105" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C105" s="3">
-        <v>1</v>
-      </c>
-      <c r="D105" s="3" t="s">
+      <c r="B105" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C105" s="2">
+        <v>1</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2232,13 +2230,13 @@
       <c r="A106" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C106" s="3">
-        <v>1</v>
-      </c>
-      <c r="D106" s="3" t="s">
+      <c r="B106" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C106" s="2">
+        <v>1</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2246,13 +2244,13 @@
       <c r="A107" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C107" s="3">
+      <c r="B107" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C107" s="2">
         <v>2</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="2" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2260,13 +2258,13 @@
       <c r="A108" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C108" s="3">
+      <c r="B108" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C108" s="2">
         <v>4</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2274,13 +2272,13 @@
       <c r="A109" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C109" s="3">
-        <v>1</v>
-      </c>
-      <c r="D109" s="3" t="s">
+      <c r="B109" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C109" s="2">
+        <v>1</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2288,13 +2286,13 @@
       <c r="A110" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C110" s="3">
+      <c r="B110" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C110" s="2">
         <v>23</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="2" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2302,13 +2300,13 @@
       <c r="A111" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C111" s="3">
+      <c r="B111" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C111" s="2">
         <v>5</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2316,13 +2314,13 @@
       <c r="A112" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C112" s="3">
-        <v>1</v>
-      </c>
-      <c r="D112" s="3" t="s">
+      <c r="B112" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C112" s="2">
+        <v>1</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2330,13 +2328,13 @@
       <c r="A113" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C113" s="3">
+      <c r="B113" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C113" s="2">
         <v>4</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="2" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2344,13 +2342,13 @@
       <c r="A114" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C114" s="3">
-        <v>1</v>
-      </c>
-      <c r="D114" s="3" t="s">
+      <c r="B114" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C114" s="2">
+        <v>1</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2358,13 +2356,13 @@
       <c r="A115" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C115" s="3">
-        <v>1</v>
-      </c>
-      <c r="D115" s="3" t="s">
+      <c r="B115" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C115" s="2">
+        <v>1</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2372,13 +2370,13 @@
       <c r="A116" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C116" s="3">
+      <c r="B116" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C116" s="2">
         <v>2</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="2" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2386,13 +2384,13 @@
       <c r="A117" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C117" s="3">
+      <c r="B117" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C117" s="2">
         <v>8</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2400,13 +2398,13 @@
       <c r="A118" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C118" s="3">
+      <c r="B118" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C118" s="2">
         <v>3</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2414,13 +2412,13 @@
       <c r="A119" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C119" s="3">
+      <c r="B119" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C119" s="2">
         <v>7</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="2" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2428,13 +2426,13 @@
       <c r="A120" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C120" s="3">
+      <c r="B120" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C120" s="2">
         <v>13</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="2" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2442,13 +2440,13 @@
       <c r="A121" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B121" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C121" s="3">
+      <c r="B121" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C121" s="2">
         <v>11</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="2" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2456,13 +2454,13 @@
       <c r="A122" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C122" s="3">
+      <c r="B122" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C122" s="2">
         <v>2</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="2" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2470,13 +2468,13 @@
       <c r="A123" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B123" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C123" s="3">
+      <c r="B123" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C123" s="2">
         <v>6</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="2" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2484,13 +2482,13 @@
       <c r="A124" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B124" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C124" s="3">
+      <c r="B124" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C124" s="2">
         <v>26</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="2" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2498,13 +2496,13 @@
       <c r="A125" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B125" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C125" s="3">
+      <c r="B125" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C125" s="2">
         <v>11</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D125" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2512,13 +2510,13 @@
       <c r="A126" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C126" s="3">
+      <c r="B126" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C126" s="2">
         <v>12</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="2" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2526,13 +2524,13 @@
       <c r="A127" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B127" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C127" s="3">
-        <v>1</v>
-      </c>
-      <c r="D127" s="3" t="s">
+      <c r="B127" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C127" s="2">
+        <v>1</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2540,13 +2538,13 @@
       <c r="A128" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B128" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C128" s="3">
+      <c r="B128" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C128" s="2">
         <v>34</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2554,13 +2552,13 @@
       <c r="A129" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B129" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C129" s="3">
-        <v>1</v>
-      </c>
-      <c r="D129" s="3" t="s">
+      <c r="B129" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C129" s="2">
+        <v>1</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2568,13 +2566,13 @@
       <c r="A130" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C130" s="3">
+      <c r="B130" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C130" s="2">
         <v>3</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D130" s="2" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2582,13 +2580,13 @@
       <c r="A131" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B131" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C131" s="3">
-        <v>1</v>
-      </c>
-      <c r="D131" s="3" t="s">
+      <c r="B131" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C131" s="2">
+        <v>1</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2596,13 +2594,13 @@
       <c r="A132" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B132" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C132" s="3">
+      <c r="B132" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C132" s="2">
         <v>2</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="2" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2610,13 +2608,13 @@
       <c r="A133" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C133" s="3">
+      <c r="B133" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C133" s="2">
         <v>3</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" s="2" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2624,13 +2622,13 @@
       <c r="A134" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B134" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C134" s="3">
+      <c r="B134" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C134" s="2">
         <v>5</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="2" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2638,13 +2636,13 @@
       <c r="A135" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B135" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C135" s="3">
+      <c r="B135" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C135" s="2">
         <v>4</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D135" s="2" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2652,13 +2650,13 @@
       <c r="A136" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B136" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C136" s="3">
-        <v>1</v>
-      </c>
-      <c r="D136" s="3" t="s">
+      <c r="B136" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C136" s="2">
+        <v>1</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2666,13 +2664,13 @@
       <c r="A137" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B137" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C137" s="3">
+      <c r="B137" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C137" s="2">
         <v>2</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D137" s="2" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2680,13 +2678,13 @@
       <c r="A138" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B138" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C138" s="3">
+      <c r="B138" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C138" s="2">
         <v>2</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D138" s="2" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2694,13 +2692,13 @@
       <c r="A139" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B139" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C139" s="3">
+      <c r="B139" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C139" s="2">
         <v>13</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D139" s="2" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2708,13 +2706,13 @@
       <c r="A140" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B140" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C140" s="3">
+      <c r="B140" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C140" s="2">
         <v>4</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="2" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2722,13 +2720,13 @@
       <c r="A141" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B141" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C141" s="3">
+      <c r="B141" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C141" s="2">
         <v>5</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D141" s="2" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2736,13 +2734,13 @@
       <c r="A142" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B142" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C142" s="3">
-        <v>1</v>
-      </c>
-      <c r="D142" s="3" t="s">
+      <c r="B142" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C142" s="2">
+        <v>1</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2750,13 +2748,13 @@
       <c r="A143" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B143" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C143" s="3">
-        <v>1</v>
-      </c>
-      <c r="D143" s="3" t="s">
+      <c r="B143" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C143" s="2">
+        <v>1</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2764,13 +2762,13 @@
       <c r="A144" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B144" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C144" s="3">
-        <v>1</v>
-      </c>
-      <c r="D144" s="3" t="s">
+      <c r="B144" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C144" s="2">
+        <v>1</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2778,13 +2776,13 @@
       <c r="A145" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B145" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C145" s="3">
+      <c r="B145" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C145" s="2">
         <v>2</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D145" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2792,13 +2790,13 @@
       <c r="A146" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B146" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C146" s="3">
-        <v>1</v>
-      </c>
-      <c r="D146" s="3" t="s">
+      <c r="B146" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C146" s="2">
+        <v>1</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2806,13 +2804,13 @@
       <c r="A147" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B147" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C147" s="3">
-        <v>1</v>
-      </c>
-      <c r="D147" s="3" t="s">
+      <c r="B147" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C147" s="2">
+        <v>1</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2820,13 +2818,13 @@
       <c r="A148" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B148" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C148" s="3">
-        <v>1</v>
-      </c>
-      <c r="D148" s="3" t="s">
+      <c r="B148" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C148" s="2">
+        <v>1</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2834,13 +2832,13 @@
       <c r="A149" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B149" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C149" s="3">
+      <c r="B149" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C149" s="2">
         <v>2</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D149" s="2" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2848,13 +2846,13 @@
       <c r="A150" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B150" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C150" s="3">
+      <c r="B150" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C150" s="2">
         <v>6</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D150" s="2" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2862,13 +2860,13 @@
       <c r="A151" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B151" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C151" s="3">
+      <c r="B151" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C151" s="2">
         <v>10</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="D151" s="2" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2876,13 +2874,13 @@
       <c r="A152" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B152" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C152" s="3">
-        <v>1</v>
-      </c>
-      <c r="D152" s="3" t="s">
+      <c r="B152" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C152" s="2">
+        <v>1</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2890,13 +2888,13 @@
       <c r="A153" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B153" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C153" s="3">
-        <v>1</v>
-      </c>
-      <c r="D153" s="3" t="s">
+      <c r="B153" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C153" s="2">
+        <v>1</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2904,13 +2902,13 @@
       <c r="A154" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B154" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C154" s="3">
+      <c r="B154" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C154" s="2">
         <v>8</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="D154" s="2" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2918,13 +2916,13 @@
       <c r="A155" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B155" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C155" s="3">
+      <c r="B155" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C155" s="2">
         <v>7</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D155" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2932,13 +2930,13 @@
       <c r="A156" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B156" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C156" s="3">
-        <v>1</v>
-      </c>
-      <c r="D156" s="3" t="s">
+      <c r="B156" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C156" s="2">
+        <v>1</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2946,13 +2944,13 @@
       <c r="A157" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B157" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C157" s="3">
-        <v>1</v>
-      </c>
-      <c r="D157" s="3" t="s">
+      <c r="B157" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C157" s="2">
+        <v>1</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2960,13 +2958,13 @@
       <c r="A158" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B158" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C158" s="3">
+      <c r="B158" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C158" s="2">
         <v>3</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="D158" s="2" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2974,13 +2972,13 @@
       <c r="A159" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B159" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C159" s="3">
+      <c r="B159" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C159" s="2">
         <v>3</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="D159" s="2" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2988,13 +2986,13 @@
       <c r="A160" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B160" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C160" s="3">
-        <v>1</v>
-      </c>
-      <c r="D160" s="3" t="s">
+      <c r="B160" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C160" s="2">
+        <v>1</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3002,13 +3000,13 @@
       <c r="A161" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B161" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C161" s="3">
+      <c r="B161" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C161" s="2">
         <v>9</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="D161" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3016,13 +3014,13 @@
       <c r="A162" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B162" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C162" s="3">
+      <c r="B162" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C162" s="2">
         <v>16</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="D162" s="2" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3030,13 +3028,13 @@
       <c r="A163" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B163" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C163" s="3">
-        <v>1</v>
-      </c>
-      <c r="D163" s="3" t="s">
+      <c r="B163" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C163" s="2">
+        <v>1</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3044,13 +3042,13 @@
       <c r="A164" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B164" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C164" s="3">
+      <c r="B164" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C164" s="2">
         <v>19</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="D164" s="2" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3058,13 +3056,13 @@
       <c r="A165" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B165" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C165" s="3">
-        <v>1</v>
-      </c>
-      <c r="D165" s="3" t="s">
+      <c r="B165" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C165" s="2">
+        <v>1</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3072,13 +3070,13 @@
       <c r="A166" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B166" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C166" s="3">
+      <c r="B166" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C166" s="2">
         <v>23</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D166" s="2" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3086,13 +3084,13 @@
       <c r="A167" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B167" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C167" s="3">
-        <v>1</v>
-      </c>
-      <c r="D167" s="3" t="s">
+      <c r="B167" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C167" s="2">
+        <v>1</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3100,23 +3098,33 @@
       <c r="A168" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B168" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C168" s="3">
+      <c r="B168" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C168" s="2">
         <v>28</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="D168" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
+      <c r="A169" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C169" s="3">
+        <v>843</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source-xlsx/18-04-2020.xlsx
+++ b/source-xlsx/18-04-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\covid19\source-xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B323F7-73DC-4DA5-A6F6-15C0A74AE17E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DC0CA5-2AE7-4735-931E-F1D56F247EB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -894,7 +894,7 @@
   <dimension ref="A1:D170"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A156" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170:XFD292"/>
+      <selection activeCell="A170" sqref="A170:XFD296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3113,7 +3113,7 @@
         <v>56</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="C169" s="3">
         <v>843</v>
